--- a/ics2matrix.xlsx
+++ b/ics2matrix.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9E0D20-AE48-4446-A50C-2282D278C34A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF319A-9118-5D43-AD42-0F7F57A16BA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="4360" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="4360" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="17" r:id="rId1"/>
-    <sheet name="New Hybrid Matrix Subtechniques" sheetId="7" r:id="rId2"/>
+    <sheet name="ICS2 Matrix" sheetId="7" r:id="rId2"/>
     <sheet name="Block IO Communication" sheetId="9" r:id="rId3"/>
     <sheet name="Data from Debug Port" sheetId="10" r:id="rId4"/>
     <sheet name="Exfiltration over Side-channel" sheetId="11" r:id="rId5"/>
@@ -2051,13 +2051,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2066,10 +2075,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2084,16 +2093,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2445,7 +2445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285ABEEF-4153-CF4B-914D-271F05E15A2E}">
   <dimension ref="A7:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2455,7 +2455,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
+      <c r="A7" s="25"/>
       <c r="B7" t="s">
         <v>557</v>
       </c>
@@ -2580,9 +2580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B051F-8545-3043-B324-23473C88B86D}">
   <dimension ref="A1:AB108"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U31" sqref="U31"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2591,54 +2591,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="36" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="36" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="36" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="36"/>
+      <c r="X1" s="27"/>
       <c r="Y1" s="20" t="s">
         <v>12</v>
       </c>
@@ -2651,68 +2651,68 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="29" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="29" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="34" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="25" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="29" t="s">
         <v>23</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="29" t="s">
         <v>24</v>
       </c>
       <c r="V2" s="30"/>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="25"/>
+      <c r="X2" s="29"/>
       <c r="Y2" s="16" t="s">
         <v>26</v>
       </c>
@@ -2725,56 +2725,56 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="30"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="M3" s="25"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="29" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="30"/>
-      <c r="Q3" s="25"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="S3" s="25"/>
+      <c r="S3" s="29"/>
       <c r="T3" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="V3" s="30"/>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="25"/>
+      <c r="X3" s="29"/>
       <c r="Y3" s="7" t="s">
         <v>40</v>
       </c>
@@ -2786,56 +2786,56 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="25"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="M4" s="25"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="29" t="s">
         <v>61</v>
       </c>
       <c r="P4" s="30"/>
-      <c r="Q4" s="25"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="S4" s="25"/>
+      <c r="S4" s="29"/>
       <c r="T4" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="29" t="s">
         <v>50</v>
       </c>
       <c r="V4" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="27"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="7" t="s">
         <v>52</v>
       </c>
@@ -2847,53 +2847,53 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="25"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="26" t="s">
         <v>75</v>
       </c>
       <c r="P5" s="26"/>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="29" t="s">
         <v>36</v>
       </c>
       <c r="R5" s="30"/>
-      <c r="S5" s="25"/>
+      <c r="S5" s="29"/>
       <c r="T5" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="U5" s="25"/>
+      <c r="U5" s="29"/>
       <c r="V5" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="W5" s="29" t="s">
         <v>65</v>
       </c>
       <c r="X5" s="8" t="s">
@@ -2910,57 +2910,57 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="29" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="29" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="29" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="28" t="s">
+      <c r="N6" s="29"/>
+      <c r="O6" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="25" t="s">
+      <c r="P6" s="32"/>
+      <c r="Q6" s="29" t="s">
         <v>48</v>
       </c>
       <c r="R6" s="30"/>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
       <c r="V6" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="W6" s="25"/>
+      <c r="W6" s="29"/>
       <c r="X6" s="8" t="s">
         <v>297</v>
       </c>
@@ -2975,51 +2975,51 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="28" t="s">
+      <c r="N7" s="29"/>
+      <c r="O7" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="25" t="s">
+      <c r="P7" s="32"/>
+      <c r="Q7" s="29" t="s">
         <v>62</v>
       </c>
       <c r="R7" s="30"/>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29" t="s">
         <v>64</v>
       </c>
       <c r="V7" s="30"/>
-      <c r="W7" s="25"/>
+      <c r="W7" s="29"/>
       <c r="X7" s="8" t="s">
         <v>302</v>
       </c>
@@ -3034,35 +3034,35 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="K8" s="25"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25" t="s">
+      <c r="N8" s="29"/>
+      <c r="O8" s="29" t="s">
         <v>118</v>
       </c>
       <c r="P8" s="10" t="s">
@@ -3084,7 +3084,7 @@
       <c r="V8" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="29" t="s">
         <v>79</v>
       </c>
       <c r="X8" s="8" t="s">
@@ -3101,37 +3101,37 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="29" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25" t="s">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="10" t="s">
         <v>295</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="R9" s="26"/>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="29" t="s">
         <v>77</v>
       </c>
       <c r="T9" s="8" t="s">
@@ -3151,7 +3151,7 @@
       <c r="V9" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="W9" s="25"/>
+      <c r="W9" s="29"/>
       <c r="X9" s="8" t="s">
         <v>314</v>
       </c>
@@ -3166,55 +3166,55 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="28" t="s">
+      <c r="L10" s="29"/>
+      <c r="M10" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="25" t="s">
+      <c r="N10" s="31"/>
+      <c r="O10" s="29" t="s">
         <v>130</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="29" t="s">
         <v>105</v>
       </c>
       <c r="R10" s="30"/>
-      <c r="S10" s="25"/>
+      <c r="S10" s="29"/>
       <c r="T10" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="29" t="s">
         <v>107</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="W10" s="29" t="s">
         <v>94</v>
       </c>
       <c r="X10" s="8" t="s">
@@ -3231,29 +3231,29 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="29"/>
+      <c r="K11" s="29" t="s">
         <v>73</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -3263,25 +3263,25 @@
         <v>117</v>
       </c>
       <c r="N11" s="26"/>
-      <c r="O11" s="25"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="29" t="s">
         <v>119</v>
       </c>
       <c r="R11" s="30"/>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="29" t="s">
         <v>92</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="U11" s="25"/>
+      <c r="U11" s="29"/>
       <c r="V11" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="W11" s="25"/>
+      <c r="W11" s="29"/>
       <c r="X11" s="8" t="s">
         <v>324</v>
       </c>
@@ -3296,53 +3296,53 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="29" t="s">
         <v>131</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="S12" s="25"/>
+      <c r="S12" s="29"/>
       <c r="T12" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="29" t="s">
         <v>121</v>
       </c>
       <c r="V12" s="30"/>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="29" t="s">
         <v>108</v>
       </c>
       <c r="X12" s="8" t="s">
@@ -3359,29 +3359,29 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="34" t="s">
         <v>157</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="8" t="s">
         <v>330</v>
       </c>
@@ -3389,48 +3389,48 @@
         <v>116</v>
       </c>
       <c r="N13" s="26"/>
-      <c r="O13" s="25"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="Q13" s="25"/>
+      <c r="Q13" s="29"/>
       <c r="R13" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="S13" s="25"/>
+      <c r="S13" s="29"/>
       <c r="T13" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="U13" s="39" t="s">
+      <c r="U13" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="W13" s="25"/>
+      <c r="W13" s="29"/>
       <c r="X13" s="8" t="s">
         <v>333</v>
       </c>
       <c r="Y13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="Z13" s="39" t="s">
+      <c r="Z13" s="25" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="29" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="10" t="s">
         <v>254</v>
       </c>
@@ -3440,32 +3440,32 @@
       <c r="J14" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="25" t="s">
+      <c r="R14" s="32"/>
+      <c r="S14" s="29" t="s">
         <v>106</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="W14" s="25"/>
+      <c r="W14" s="29"/>
       <c r="X14" s="8" t="s">
         <v>339</v>
       </c>
@@ -3474,49 +3474,49 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="8" t="s">
         <v>88</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="29" t="s">
         <v>152</v>
       </c>
       <c r="R15" s="30"/>
-      <c r="S15" s="25"/>
+      <c r="S15" s="29"/>
       <c r="T15" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="W15" s="25"/>
+      <c r="W15" s="29"/>
       <c r="X15" s="8" t="s">
         <v>344</v>
       </c>
@@ -3525,156 +3525,156 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B16" s="30"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="29" t="s">
         <v>115</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="34" t="s">
         <v>102</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25" t="s">
+      <c r="N16" s="29"/>
+      <c r="O16" s="29" t="s">
         <v>141</v>
       </c>
       <c r="P16" s="30"/>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="29" t="s">
         <v>164</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="S16" s="25"/>
+      <c r="S16" s="29"/>
       <c r="T16" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="W16" s="25" t="s">
+      <c r="W16" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="X16" s="25"/>
+      <c r="X16" s="29"/>
       <c r="Y16" s="16" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25" t="s">
+      <c r="N17" s="29"/>
+      <c r="O17" s="29" t="s">
         <v>151</v>
       </c>
       <c r="P17" s="30"/>
-      <c r="Q17" s="25"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="29" t="s">
         <v>120</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="W17" s="25" t="s">
+      <c r="W17" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="X17" s="25"/>
+      <c r="X17" s="29"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="27"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="29" t="s">
         <v>179</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="29" t="s">
         <v>163</v>
       </c>
       <c r="P18" s="30"/>
-      <c r="Q18" s="25"/>
+      <c r="Q18" s="29"/>
       <c r="R18" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="S18" s="25"/>
+      <c r="S18" s="29"/>
       <c r="T18" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="W18" s="27" t="s">
+      <c r="W18" s="34" t="s">
         <v>144</v>
       </c>
       <c r="X18" s="15" t="s">
@@ -3682,245 +3682,245 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="29" t="s">
         <v>138</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="29" t="s">
         <v>171</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="29" t="s">
         <v>172</v>
       </c>
       <c r="R19" s="30"/>
-      <c r="S19" s="27" t="s">
+      <c r="S19" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="W19" s="27"/>
+      <c r="T19" s="34"/>
+      <c r="W19" s="34"/>
       <c r="X19" s="15" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="29" t="s">
         <v>182</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="29" t="s">
         <v>128</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
       <c r="P20" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="29" t="s">
         <v>73</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="T20" s="25"/>
-      <c r="W20" s="25" t="s">
+      <c r="T20" s="29"/>
+      <c r="W20" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="X20" s="25"/>
+      <c r="X20" s="29"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C21" s="25"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="25"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="K21" s="25"/>
+      <c r="K21" s="29"/>
       <c r="L21" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="29"/>
       <c r="O21" s="26" t="s">
         <v>110</v>
       </c>
       <c r="P21" s="26"/>
-      <c r="Q21" s="25"/>
+      <c r="Q21" s="29"/>
       <c r="R21" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="T21" s="25"/>
-      <c r="W21" s="25" t="s">
+      <c r="T21" s="29"/>
+      <c r="W21" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="X21" s="25"/>
+      <c r="X21" s="29"/>
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C22" s="25"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25" t="s">
+      <c r="F22" s="29"/>
+      <c r="G22" s="29" t="s">
         <v>57</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="I22" s="25"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="K22" s="25"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="N22" s="25"/>
-      <c r="Q22" s="25"/>
+      <c r="N22" s="29"/>
+      <c r="Q22" s="29"/>
       <c r="R22" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="T22" s="25"/>
-      <c r="W22" s="25" t="s">
+      <c r="T22" s="29"/>
+      <c r="W22" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="X22" s="25"/>
+      <c r="X22" s="29"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C23" s="25"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="29" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="I23" s="25"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="K23" s="25"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="Q23" s="25"/>
+      <c r="N23" s="29"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="T23" s="25"/>
+      <c r="T23" s="29"/>
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C24" s="25"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="I24" s="25"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="K24" s="25"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="8" t="s">
         <v>368</v>
       </c>
@@ -3930,50 +3930,50 @@
       <c r="N24" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="29" t="s">
         <v>185</v>
       </c>
       <c r="R24" s="30"/>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="T24" s="25"/>
+      <c r="T24" s="29"/>
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="29" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="29" t="s">
         <v>127</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="29"/>
       <c r="L25" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="Q25" s="25" t="s">
+      <c r="N25" s="29"/>
+      <c r="Q25" s="29" t="s">
         <v>190</v>
       </c>
       <c r="R25" s="30"/>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="29" t="s">
         <v>186</v>
       </c>
       <c r="T25" s="8" t="s">
@@ -3981,217 +3981,217 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="29" t="s">
         <v>176</v>
       </c>
       <c r="D26" s="30"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G26" s="25"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="I26" s="25"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="29"/>
       <c r="Q26" s="8" t="s">
         <v>88</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="S26" s="25"/>
+      <c r="S26" s="29"/>
       <c r="T26" s="8" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="29" t="s">
         <v>151</v>
       </c>
       <c r="D27" s="30"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="29" t="s">
         <v>71</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="I27" s="25"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="M27" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="Q27" s="28" t="s">
+      <c r="N27" s="29"/>
+      <c r="Q27" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="R27" s="29"/>
-      <c r="S27" s="25"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="29"/>
       <c r="T27" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="29" t="s">
         <v>188</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="25"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="29" t="s">
         <v>139</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="N28" s="25"/>
-      <c r="Q28" s="28" t="s">
+      <c r="N28" s="29"/>
+      <c r="Q28" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="R28" s="29"/>
-      <c r="S28" s="25"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="29"/>
       <c r="T28" s="8" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C29" s="25"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="29" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="G29" s="25"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="K29" s="25"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="N29" s="25"/>
-      <c r="Q29" s="28" t="s">
+      <c r="N29" s="29"/>
+      <c r="Q29" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="R29" s="29"/>
-      <c r="S29" s="25" t="s">
+      <c r="R29" s="32"/>
+      <c r="S29" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="T29" s="25"/>
+      <c r="T29" s="29"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="29" t="s">
         <v>192</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E30" s="25"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="I30" s="25"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="K30" s="25"/>
+      <c r="K30" s="29"/>
       <c r="L30" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="Q30" s="28" t="s">
+      <c r="N30" s="29"/>
+      <c r="Q30" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="R30" s="29"/>
-      <c r="S30" s="25" t="s">
+      <c r="R30" s="32"/>
+      <c r="S30" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="T30" s="25"/>
+      <c r="T30" s="29"/>
     </row>
     <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="C31" s="25"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="29" t="s">
         <v>86</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="L31" s="25"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="6" t="s">
         <v>217</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="Q31" s="25" t="s">
+      <c r="Q31" s="29" t="s">
         <v>211</v>
       </c>
       <c r="R31" s="30"/>
@@ -4203,37 +4203,37 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="29" t="s">
         <v>196</v>
       </c>
       <c r="D32" s="30"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="L32" s="25"/>
+      <c r="L32" s="29"/>
       <c r="M32" s="6" t="s">
         <v>217</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="29" t="s">
         <v>213</v>
       </c>
       <c r="R32" s="30"/>
-      <c r="S32" s="25" t="s">
+      <c r="S32" s="29" t="s">
         <v>203</v>
       </c>
       <c r="T32" s="8" t="s">
@@ -4245,19 +4245,19 @@
         <v>534</v>
       </c>
       <c r="D33" s="26"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="29" t="s">
         <v>169</v>
       </c>
       <c r="L33" s="8" t="s">
@@ -4273,25 +4273,25 @@
         <v>510</v>
       </c>
       <c r="R33" s="41"/>
-      <c r="S33" s="25"/>
+      <c r="S33" s="29"/>
       <c r="T33" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="34" spans="3:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="E34" s="25"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I34" s="25"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="K34" s="25"/>
+      <c r="K34" s="29"/>
       <c r="L34" s="8" t="s">
         <v>402</v>
       </c>
@@ -4302,25 +4302,25 @@
         <v>533</v>
       </c>
       <c r="R34" s="26"/>
-      <c r="S34" s="25"/>
+      <c r="S34" s="29"/>
       <c r="T34" s="8" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="35" spans="3:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="E35" s="25"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="I35" s="25"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="K35" s="25"/>
+      <c r="K35" s="29"/>
       <c r="L35" s="8" t="s">
         <v>405</v>
       </c>
@@ -4330,21 +4330,21 @@
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E36" s="25"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="29" t="s">
         <v>160</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="K36" s="25"/>
+      <c r="K36" s="29"/>
       <c r="L36" s="8" t="s">
         <v>408</v>
       </c>
@@ -4354,76 +4354,76 @@
       <c r="N36" s="26"/>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E37" s="25"/>
+      <c r="E37" s="29"/>
       <c r="F37" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="I37" s="25"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="K37" s="25"/>
+      <c r="K37" s="29"/>
       <c r="L37" s="8" t="s">
         <v>411</v>
       </c>
       <c r="M37" s="17"/>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E38" s="25"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="G38" s="25"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E39" s="25"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="G39" s="25"/>
+      <c r="G39" s="29"/>
       <c r="H39" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="I39" s="25"/>
+      <c r="I39" s="29"/>
       <c r="J39" s="8" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E40" s="25"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="G40" s="25"/>
+      <c r="G40" s="29"/>
       <c r="H40" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="I40" s="25"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E41" s="25"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="G41" s="25"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="29" t="s">
         <v>168</v>
       </c>
       <c r="J41" s="8" t="s">
@@ -4431,103 +4431,103 @@
       </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E42" s="25"/>
+      <c r="E42" s="29"/>
       <c r="F42" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="G42" s="25"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="I42" s="25"/>
+      <c r="I42" s="29"/>
       <c r="J42" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E43" s="25"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="G43" s="25"/>
+      <c r="G43" s="29"/>
       <c r="H43" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
       <c r="H44" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="I44" s="25"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="29" t="s">
         <v>127</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="29"/>
       <c r="H45" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="I45" s="25"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E46" s="25"/>
+      <c r="E46" s="29"/>
       <c r="F46" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="31"/>
-      <c r="I46" s="25"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E47" s="25"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="29" t="s">
         <v>114</v>
       </c>
       <c r="H47" s="30"/>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="25"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E48" s="25"/>
+      <c r="E48" s="29"/>
       <c r="F48" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="29" t="s">
         <v>127</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I48" s="25" t="s">
+      <c r="I48" s="29" t="s">
         <v>53</v>
       </c>
       <c r="J48" s="8" t="s">
@@ -4535,85 +4535,85 @@
       </c>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E49" s="25"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="G49" s="25"/>
+      <c r="G49" s="29"/>
       <c r="H49" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="I49" s="25"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="8" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E50" s="25"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="G50" s="25"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="I50" s="25"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E51" s="25"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="G51" s="25"/>
+      <c r="G51" s="29"/>
       <c r="H51" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="I51" s="25"/>
+      <c r="I51" s="29"/>
       <c r="J51" s="8" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E52" s="25"/>
+      <c r="E52" s="29"/>
       <c r="F52" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="G52" s="25"/>
+      <c r="G52" s="29"/>
       <c r="H52" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="I52" s="25"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="8" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="53" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E53" s="25"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="G53" s="25"/>
+      <c r="G53" s="29"/>
       <c r="H53" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="I53" s="25"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="54" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E54" s="25"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="29"/>
       <c r="H54" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="I54" s="25" t="s">
+      <c r="I54" s="29" t="s">
         <v>102</v>
       </c>
       <c r="J54" s="8" t="s">
@@ -4621,29 +4621,29 @@
       </c>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E55" s="25"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="G55" s="25"/>
+      <c r="G55" s="29"/>
       <c r="H55" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="I55" s="25"/>
+      <c r="I55" s="29"/>
       <c r="J55" s="8" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="25"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="29"/>
       <c r="H56" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="I56" s="25"/>
+      <c r="I56" s="29"/>
       <c r="J56" s="8" t="s">
         <v>353</v>
       </c>
@@ -4653,27 +4653,27 @@
         <v>95</v>
       </c>
       <c r="F57" s="26"/>
-      <c r="G57" s="25"/>
+      <c r="G57" s="29"/>
       <c r="H57" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="I57" s="25" t="s">
+      <c r="I57" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="J57" s="25"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="29" t="s">
         <v>177</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="G58" s="25"/>
+      <c r="G58" s="29"/>
       <c r="H58" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="I58" s="25" t="s">
+      <c r="I58" s="29" t="s">
         <v>197</v>
       </c>
       <c r="J58" s="8" t="s">
@@ -4681,73 +4681,73 @@
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E59" s="25"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G59" s="34" t="s">
         <v>137</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="I59" s="25"/>
+      <c r="I59" s="29"/>
       <c r="J59" s="8" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E60" s="25"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="G60" s="27"/>
+      <c r="G60" s="34"/>
       <c r="H60" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="I60" s="25"/>
+      <c r="I60" s="29"/>
       <c r="J60" s="8" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="61" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E61" s="25"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="G61" s="27"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="I61" s="25"/>
+      <c r="I61" s="29"/>
       <c r="J61" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E62" s="25"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="G62" s="27"/>
+      <c r="G62" s="34"/>
       <c r="H62" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="I62" s="25"/>
+      <c r="I62" s="29"/>
       <c r="J62" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="63" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E63" s="25"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G63" s="27"/>
+      <c r="G63" s="34"/>
       <c r="H63" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="I63" s="25" t="s">
+      <c r="I63" s="29" t="s">
         <v>183</v>
       </c>
       <c r="J63" s="8" t="s">
@@ -4755,45 +4755,45 @@
       </c>
     </row>
     <row r="64" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="29" t="s">
         <v>183</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="G64" s="27"/>
+      <c r="G64" s="34"/>
       <c r="H64" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="I64" s="25"/>
+      <c r="I64" s="29"/>
       <c r="J64" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="65" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E65" s="25"/>
+      <c r="E65" s="29"/>
       <c r="F65" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="G65" s="27"/>
+      <c r="G65" s="34"/>
       <c r="H65" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="I65" s="25"/>
+      <c r="I65" s="29"/>
       <c r="J65" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="66" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E66" s="25"/>
+      <c r="E66" s="29"/>
       <c r="F66" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G66" s="27"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="I66" s="25" t="s">
+      <c r="I66" s="29" t="s">
         <v>137</v>
       </c>
       <c r="J66" s="8" t="s">
@@ -4805,191 +4805,191 @@
         <v>110</v>
       </c>
       <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
+      <c r="G67" s="34"/>
       <c r="H67" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="I67" s="25"/>
+      <c r="I67" s="29"/>
       <c r="J67" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="68" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E68" s="28" t="s">
+      <c r="E68" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="27"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="34"/>
       <c r="H68" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="I68" s="25"/>
+      <c r="I68" s="29"/>
       <c r="J68" s="8" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="69" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="29" t="s">
         <v>149</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G69" s="27"/>
+      <c r="G69" s="34"/>
       <c r="H69" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="I69" s="25"/>
+      <c r="I69" s="29"/>
       <c r="J69" s="8" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="70" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E70" s="25"/>
+      <c r="E70" s="29"/>
       <c r="F70" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="29" t="s">
         <v>149</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I70" s="25"/>
+      <c r="I70" s="29"/>
       <c r="J70" s="8" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="71" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E71" s="25"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G71" s="25"/>
+      <c r="G71" s="29"/>
       <c r="H71" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="I71" s="25"/>
+      <c r="I71" s="29"/>
       <c r="J71" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="72" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E72" s="25"/>
+      <c r="E72" s="29"/>
       <c r="F72" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G72" s="25"/>
+      <c r="G72" s="29"/>
       <c r="H72" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="I72" s="25"/>
+      <c r="I72" s="29"/>
       <c r="J72" s="8" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="73" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E73" s="25"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G73" s="25"/>
+      <c r="G73" s="29"/>
       <c r="H73" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="I73" s="25"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="8" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="74" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="29" t="s">
         <v>206</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="G74" s="25"/>
+      <c r="G74" s="29"/>
       <c r="H74" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="I74" s="25"/>
+      <c r="I74" s="29"/>
       <c r="J74" s="8" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="75" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E75" s="25"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="29" t="s">
         <v>159</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I75" s="25"/>
+      <c r="I75" s="29"/>
       <c r="J75" s="8" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="76" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E76" s="25"/>
+      <c r="E76" s="29"/>
       <c r="F76" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="G76" s="25"/>
+      <c r="G76" s="29"/>
       <c r="H76" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="I76" s="25"/>
+      <c r="I76" s="29"/>
       <c r="J76" s="8" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="77" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
       <c r="H77" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="I77" s="25" t="s">
+      <c r="I77" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="J77" s="25"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E78" s="25" t="s">
+      <c r="E78" s="29" t="s">
         <v>159</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="I78" s="25" t="s">
+      <c r="I78" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="J78" s="25"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E79" s="25"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="I79" s="25" t="s">
+      <c r="I79" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="J79" s="25"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E80" s="25"/>
+      <c r="E80" s="29"/>
       <c r="F80" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="I80" s="25" t="s">
+      <c r="I80" s="29" t="s">
         <v>214</v>
       </c>
       <c r="J80" s="8" t="s">
@@ -5001,7 +5001,7 @@
         <v>531</v>
       </c>
       <c r="F81" s="26"/>
-      <c r="I81" s="25"/>
+      <c r="I81" s="29"/>
       <c r="J81" s="8" t="s">
         <v>460</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>181</v>
       </c>
       <c r="F82" s="26"/>
-      <c r="I82" s="25"/>
+      <c r="I82" s="29"/>
       <c r="J82" s="8" t="s">
         <v>461</v>
       </c>
@@ -5021,61 +5021,61 @@
         <v>532</v>
       </c>
       <c r="F83" s="26"/>
-      <c r="I83" s="25"/>
+      <c r="I83" s="29"/>
       <c r="J83" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="84" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I84" s="25"/>
+      <c r="I84" s="29"/>
       <c r="J84" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="85" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I85" s="25"/>
+      <c r="I85" s="29"/>
       <c r="J85" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="86" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I86" s="25"/>
+      <c r="I86" s="29"/>
       <c r="J86" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="87" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I87" s="25"/>
+      <c r="I87" s="29"/>
       <c r="J87" s="8" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="88" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I88" s="25"/>
+      <c r="I88" s="29"/>
       <c r="J88" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="89" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I89" s="25"/>
+      <c r="I89" s="29"/>
       <c r="J89" s="8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="90" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I90" s="25"/>
+      <c r="I90" s="29"/>
       <c r="J90" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="91" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I91" s="25" t="s">
+      <c r="I91" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="J91" s="25"/>
+      <c r="J91" s="29"/>
     </row>
     <row r="92" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I92" s="25" t="s">
+      <c r="I92" s="29" t="s">
         <v>218</v>
       </c>
       <c r="J92" s="8" t="s">
@@ -5083,28 +5083,28 @@
       </c>
     </row>
     <row r="93" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I93" s="25"/>
+      <c r="I93" s="29"/>
       <c r="J93" s="8" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="94" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I94" s="25"/>
+      <c r="I94" s="29"/>
       <c r="J94" s="8" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="95" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I95" s="25"/>
+      <c r="I95" s="29"/>
       <c r="J95" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="96" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I96" s="25" t="s">
+      <c r="I96" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="J96" s="25"/>
+      <c r="J96" s="29"/>
     </row>
     <row r="97" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I97" s="8" t="s">
@@ -5123,7 +5123,7 @@
       </c>
     </row>
     <row r="99" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I99" s="25" t="s">
+      <c r="I99" s="29" t="s">
         <v>171</v>
       </c>
       <c r="J99" s="8" t="s">
@@ -5131,19 +5131,19 @@
       </c>
     </row>
     <row r="100" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I100" s="25"/>
+      <c r="I100" s="29"/>
       <c r="J100" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="101" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I101" s="25" t="s">
+      <c r="I101" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="J101" s="25"/>
+      <c r="J101" s="29"/>
     </row>
     <row r="102" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I102" s="25" t="s">
+      <c r="I102" s="29" t="s">
         <v>159</v>
       </c>
       <c r="J102" s="8" t="s">
@@ -5151,19 +5151,19 @@
       </c>
     </row>
     <row r="103" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I103" s="25"/>
+      <c r="I103" s="29"/>
       <c r="J103" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="104" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I104" s="25"/>
+      <c r="I104" s="29"/>
       <c r="J104" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="105" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I105" s="25" t="s">
+      <c r="I105" s="29" t="s">
         <v>217</v>
       </c>
       <c r="J105" s="8" t="s">
@@ -5171,50 +5171,198 @@
       </c>
     </row>
     <row r="106" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I106" s="25"/>
+      <c r="I106" s="29"/>
       <c r="J106" s="8" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="107" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I107" s="25"/>
+      <c r="I107" s="29"/>
       <c r="J107" s="8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="108" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I108" s="25" t="s">
+      <c r="I108" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="J108" s="25"/>
+      <c r="J108" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="222">
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E29:E43"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:I90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="G59:G69"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="I66:I76"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="G70:G74"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="G48:G58"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="G31:G45"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="K20:K27"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="I25:I35"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:G21"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="W12:W15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E5:E15"/>
@@ -5239,179 +5387,31 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="I2:I5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:G21"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="W12:W15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:O15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="K20:K27"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="I25:I35"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="G31:G45"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="I36:I40"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="G59:G69"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="I66:I76"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="G70:G74"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="G48:G58"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:I90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E29:E43"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q32:R32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K1:L1" r:id="rId1" display="Credential Access" xr:uid="{6466CE23-CD19-BD4E-A8CE-F75CCCFEB22B}"/>
